--- a/medicine/Enfance/Ole_Henrik_Laub/Ole_Henrik_Laub.xlsx
+++ b/medicine/Enfance/Ole_Henrik_Laub/Ole_Henrik_Laub.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ole Henrik Laub, né le 3 décembre 1937 à Aarhus, Danemark et mort le 22 octobre 2019 à Assens[1], est un écrivain danois, auteur de courts récits et de livres pour enfants. Il est aussi peintre et photographe.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ole Henrik Laub, né le 3 décembre 1937 à Aarhus, Danemark et mort le 22 octobre 2019 à Assens, est un écrivain danois, auteur de courts récits et de livres pour enfants. Il est aussi peintre et photographe.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ole Henrik Laub débute en 1967 avec Et Svaerd Dyppet i Honning, un recueil d'histoires courtes. Puis il écrit plus d'une cinquantaine de livres, dont des recueils de nouvelles, romans et livres pour enfants, mais aussi des dramatiques radio et des pièces de théâtre. En outre, il joue pour la télévision. Toutes ces histoires se déroulent à la tombée de la nuit et sont contées sur un ton sinistre. 
-Ole Henrik Laub s'adonne aussi à la peinture. Tous ses tableaux contiennent une histoire courte. Enfin, il est photographe sous le pseudonyme de Henry Barrach[2].
+Ole Henrik Laub s'adonne aussi à la peinture. Tous ses tableaux contiennent une histoire courte. Enfin, il est photographe sous le pseudonyme de Henry Barrach.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Romans et nouvelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Et sværd dyppet i honning (1967)
